--- a/espn/src/main/resources/ESPNMMAPage_ExpectedWebElements.xlsx
+++ b/espn/src/main/resources/ESPNMMAPage_ExpectedWebElements.xlsx
@@ -8,12 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamin\IdeaProjects\AutomationFramework_Team3\espn\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152DA58E-1BE2-42E2-AA5E-DC5F00A5EA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A1427C-EF69-4A0C-AE0B-5C4BF9217BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MMAPageTitle" sheetId="1" r:id="rId1"/>
+    <sheet name="scheduletItle" sheetId="2" r:id="rId2"/>
+    <sheet name="PlayUfcTitle" sheetId="3" r:id="rId3"/>
+    <sheet name="FightCenterTitle" sheetId="4" r:id="rId4"/>
+    <sheet name="espnBestFight" sheetId="5" r:id="rId5"/>
+    <sheet name="espn+MenuCount" sheetId="6" r:id="rId6"/>
+    <sheet name="moreMenuLinksount" sheetId="7" r:id="rId7"/>
+    <sheet name="subscribeNowTitle" sheetId="8" r:id="rId8"/>
+    <sheet name="quickLinksSection" sheetId="9" r:id="rId9"/>
+    <sheet name="fantasySection" sheetId="10" r:id="rId10"/>
+    <sheet name="FantasySectionLinks" sheetId="11" r:id="rId11"/>
+    <sheet name="espnSites" sheetId="12" r:id="rId12"/>
+    <sheet name="espnSitesLinks" sheetId="13" r:id="rId13"/>
+    <sheet name="espnAppsCount" sheetId="14" r:id="rId14"/>
+    <sheet name="espnAppsLinks" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +39,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mixed Martial Arts News, Video, Rankings, Results, and History - MMA - ESPN</t>
+  </si>
+  <si>
+    <t>MMA Schedule 2020 | ESPN</t>
+  </si>
+  <si>
+    <t>ESPN UFC Fight Night Pick'em - Make Picks</t>
+  </si>
+  <si>
+    <t>UFC Fight Night: Poirier vs. Hooker | ESPN FightCenter</t>
+  </si>
+  <si>
+    <t>UFC Archives | Videos | Watch ESPN</t>
+  </si>
+  <si>
+    <t>ESPN+</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/mma/story/_/id/29314991/ufc-fight-night-curtis-blaydes-vs-alexander-volkov-how-watch-stream-plus-full-analysis</t>
+  </si>
+  <si>
+    <t>https://fantasy.espn.com/games/ufc-fight-night-las-vegas-4-2020/make-picks?addata=ufcfightnightlasvegas42020_ufc_web_quicklinks_mma</t>
+  </si>
+  <si>
+    <t>http://fantasy.espn.com/streak/en/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/fantasy/football/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/fantasy/basketball/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/fantasy/baseball/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/fantasy/hockey/</t>
+  </si>
+  <si>
+    <t>https://espndeportes.espn.com/</t>
+  </si>
+  <si>
+    <t>https://theundefeated.com/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/espnw/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/soccer/</t>
+  </si>
+  <si>
+    <t>http://www.xgames.com/</t>
+  </si>
+  <si>
+    <t>http://www.espn.com/espn/apps/espn</t>
+  </si>
+  <si>
+    <t>http://www.espn.com/espn/apps/fantasy</t>
   </si>
 </sst>
 </file>
@@ -347,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -359,4 +430,318 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DD0EC0-8201-426D-8B5A-69B97E9A85C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F65D659-31C7-4C1E-9E80-4204063FCA05}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020C0426-EAFA-420A-959F-6A17BA8DB3F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02CDC26-D2ED-4CA2-9AEC-85F10F667FD3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83462C2-94FD-40EF-B169-58771D7C29A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820FA7EE-E07E-4207-AABB-3207A136DCD7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA257BE-332D-4F57-BFA7-577E5528983C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF821F9-3A91-42FD-AFE4-9BC50405ECDF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEED4CD-C7CC-40E8-9B03-6A145166D4DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2273774A-1219-447C-9522-DC390FAC6A3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B97B2C-914E-475E-94C0-2E06293DC46C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE89299-EC6D-4194-90CA-F0643FD92DF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C29956-108E-4C01-B2F1-E6D9BF454C24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0386D4C-D0C3-4BA1-B6A0-809DEBE9184B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>